--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/58.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/58.xlsx
@@ -479,13 +479,13 @@
         <v>-0.120318648574553</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.936711225235692</v>
+        <v>-1.93565488044192</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3889694477869104</v>
+        <v>0.3919917473350915</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2273416722031968</v>
+        <v>-0.2303566715109233</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.09913664150886335</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.950786818856098</v>
+        <v>-1.949182226004189</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3080565026849322</v>
+        <v>0.3105575650646588</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2075682409080203</v>
+        <v>-0.2100006810274742</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.08414208181669657</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.026437020614396</v>
+        <v>-2.020199695170033</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2757091372308499</v>
+        <v>0.2827013075382117</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2239047189971977</v>
+        <v>-0.2272380087887423</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.07874294609951531</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.085622990075561</v>
+        <v>-2.082827728005517</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2520037964268563</v>
+        <v>0.2590981701005817</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.227242388933015</v>
+        <v>-0.2338841476985587</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.07967572244622269</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.049262682443617</v>
+        <v>-2.049634264682753</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2346292241450428</v>
+        <v>0.24479553900204</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2150524474220183</v>
+        <v>-0.2216912860913801</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.07944575943780827</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.908687792202836</v>
+        <v>-1.914241085116607</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2557517398762189</v>
+        <v>0.2628475735980352</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2026274381683853</v>
+        <v>-0.2086253157258382</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.06807586683143275</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.636689593155091</v>
+        <v>-1.642966339897908</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2582907635063091</v>
+        <v>0.2616561743558537</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1839359025085721</v>
+        <v>-0.185152122568299</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.03775633887524213</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.263841492324009</v>
+        <v>-1.266647704754736</v>
       </c>
       <c r="F9" t="n">
-        <v>0.239359779959587</v>
+        <v>0.2458380133389489</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1295359706894049</v>
+        <v>-0.1281197240412235</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.01754031037364248</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.782085484295866</v>
+        <v>-0.7806020754355028</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2676569720094885</v>
+        <v>0.2705931287203058</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03035928401824971</v>
+        <v>-0.02814147096815939</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1008604687637478</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.254012370679826</v>
+        <v>-0.2467106701771916</v>
       </c>
       <c r="F11" t="n">
-        <v>0.151533507147156</v>
+        <v>0.1622356596535168</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05631793094663611</v>
+        <v>0.05986730785563515</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2143719958958745</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4194786126945386</v>
+        <v>0.4230484302768104</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02787327403955284</v>
+        <v>0.0406399345464585</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1534403299538828</v>
+        <v>0.1582322077882451</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3588155445314258</v>
       </c>
       <c r="E13" t="n">
-        <v>1.095150907916721</v>
+        <v>1.106625425863172</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1364887196983121</v>
+        <v>-0.1236096354884065</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2891620203404827</v>
+        <v>0.2908790368953913</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5311812159332447</v>
       </c>
       <c r="E14" t="n">
-        <v>1.815071420581982</v>
+        <v>1.823907631628161</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3710162445409764</v>
+        <v>-0.3487592714431642</v>
       </c>
       <c r="G14" t="n">
-        <v>0.433224965470444</v>
+        <v>0.4367918629565339</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7282498805585238</v>
       </c>
       <c r="E15" t="n">
-        <v>2.522315795721974</v>
+        <v>2.529683198388699</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6442569445140849</v>
+        <v>-0.6198274198570005</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6240766117216655</v>
+        <v>0.6251088657219379</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.9449378226101687</v>
       </c>
       <c r="E16" t="n">
-        <v>3.19834872282261</v>
+        <v>3.203134760464609</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9575190227070917</v>
+        <v>-0.9375689255929152</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7812215877461687</v>
+        <v>0.7811515054378051</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.175367874561407</v>
       </c>
       <c r="E17" t="n">
-        <v>3.857071319757434</v>
+        <v>3.86193327990016</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.225364844984292</v>
+        <v>-1.197987483231663</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9811226120648423</v>
+        <v>0.9797019852723882</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.412646480272228</v>
       </c>
       <c r="E18" t="n">
-        <v>4.394885874236016</v>
+        <v>4.40192914622656</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.578722763849834</v>
+        <v>-1.556957826958658</v>
       </c>
       <c r="G18" t="n">
-        <v>1.18014614748088</v>
+        <v>1.178937227661607</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.646722697010452</v>
       </c>
       <c r="E19" t="n">
-        <v>4.920583489608148</v>
+        <v>4.931107516247418</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.867788195056256</v>
+        <v>-1.841353294346309</v>
       </c>
       <c r="G19" t="n">
-        <v>1.383256357503371</v>
+        <v>1.377283300763463</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.864492733677612</v>
       </c>
       <c r="E20" t="n">
-        <v>5.283349958371505</v>
+        <v>5.293739660586412</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.187903008963943</v>
+        <v>-2.16159586246195</v>
       </c>
       <c r="G20" t="n">
-        <v>1.592272462053587</v>
+        <v>1.586385548151043</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.05408559210744</v>
       </c>
       <c r="E21" t="n">
-        <v>5.590736803046696</v>
+        <v>5.604164865338783</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.505794899653222</v>
+        <v>-2.47907163944532</v>
       </c>
       <c r="G21" t="n">
-        <v>1.774524425049357</v>
+        <v>1.767142421901722</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.208344651899277</v>
       </c>
       <c r="E22" t="n">
-        <v>5.83689799107772</v>
+        <v>5.842920689452718</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.817414423743956</v>
+        <v>-2.789261046431009</v>
       </c>
       <c r="G22" t="n">
-        <v>1.900317788417777</v>
+        <v>1.894533077881597</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.323213930269288</v>
       </c>
       <c r="E23" t="n">
-        <v>5.991147691737951</v>
+        <v>5.995069380910133</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.064531213250481</v>
+        <v>-3.039749086979441</v>
       </c>
       <c r="G23" t="n">
-        <v>2.019208044412382</v>
+        <v>2.013637960945565</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.397933605345875</v>
       </c>
       <c r="E24" t="n">
-        <v>6.079048427003019</v>
+        <v>6.085182089032926</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.296646008622918</v>
+        <v>-3.273670691864379</v>
       </c>
       <c r="G24" t="n">
-        <v>2.123797129356535</v>
+        <v>2.115888048848083</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.43295678879801</v>
       </c>
       <c r="E25" t="n">
-        <v>6.096374817697832</v>
+        <v>6.099586923497831</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.473060699351235</v>
+        <v>-3.448947275105832</v>
       </c>
       <c r="G25" t="n">
-        <v>2.172502873621159</v>
+        <v>2.171140648752341</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.431619021818639</v>
       </c>
       <c r="E26" t="n">
-        <v>6.042055188523666</v>
+        <v>6.047054393186936</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.639061597071144</v>
+        <v>-3.615170830159605</v>
       </c>
       <c r="G26" t="n">
-        <v>2.193914478874335</v>
+        <v>2.197649281890879</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.398117962207414</v>
       </c>
       <c r="E27" t="n">
-        <v>5.933688959168331</v>
+        <v>5.944487474848692</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.732142582962756</v>
+        <v>-3.704501682529718</v>
       </c>
       <c r="G27" t="n">
-        <v>2.202668927227423</v>
+        <v>2.200246707444606</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.337700210988739</v>
       </c>
       <c r="E28" t="n">
-        <v>5.858116869982896</v>
+        <v>5.871536171986438</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.797659320946102</v>
+        <v>-3.771214929923564</v>
       </c>
       <c r="G28" t="n">
-        <v>2.207539647658695</v>
+        <v>2.20746810530224</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.255472815003261</v>
       </c>
       <c r="E29" t="n">
-        <v>5.659252479808768</v>
+        <v>5.674461800771764</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.837349998273409</v>
+        <v>-3.810143462147416</v>
       </c>
       <c r="G29" t="n">
-        <v>2.207154194962695</v>
+        <v>2.206676759236968</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.156541988909617</v>
       </c>
       <c r="E30" t="n">
-        <v>5.446294245413098</v>
+        <v>5.463292125287457</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.87002368447581</v>
+        <v>-3.838148644579136</v>
       </c>
       <c r="G30" t="n">
-        <v>2.16323448834007</v>
+        <v>2.161006454953344</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.045024518742002</v>
       </c>
       <c r="E31" t="n">
-        <v>5.160938066381629</v>
+        <v>5.184330956894168</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.761341354708793</v>
+        <v>-3.734491070316982</v>
       </c>
       <c r="G31" t="n">
-        <v>2.081357911498092</v>
+        <v>2.078820347916093</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.923789941742875</v>
       </c>
       <c r="E32" t="n">
-        <v>4.855567548119984</v>
+        <v>4.878351598578614</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.683825211490314</v>
+        <v>-3.652910153213413</v>
       </c>
       <c r="G32" t="n">
-        <v>1.93558963019795</v>
+        <v>1.933271073829587</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.794559546109733</v>
       </c>
       <c r="E33" t="n">
-        <v>4.57172981910306</v>
+        <v>4.596705401746144</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.541769102461307</v>
+        <v>-3.515671472860359</v>
       </c>
       <c r="G33" t="n">
-        <v>1.843447455228792</v>
+        <v>1.840918651935339</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.657979355852384</v>
       </c>
       <c r="E34" t="n">
-        <v>4.239765984913603</v>
+        <v>4.264586802459052</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.420160236921431</v>
+        <v>-3.401243853855617</v>
       </c>
       <c r="G34" t="n">
-        <v>1.711548170744192</v>
+        <v>1.714920881834191</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.516913349596566</v>
       </c>
       <c r="E35" t="n">
-        <v>3.900224501132331</v>
+        <v>3.921368917584871</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.304490116991325</v>
+        <v>-3.282725180100149</v>
       </c>
       <c r="G35" t="n">
-        <v>1.602316132870948</v>
+        <v>1.602520539603675</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.373901615598256</v>
       </c>
       <c r="E36" t="n">
-        <v>3.568881187381511</v>
+        <v>3.58676239635087</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.181216796627813</v>
+        <v>-3.157961150635819</v>
       </c>
       <c r="G36" t="n">
-        <v>1.450779201563625</v>
+        <v>1.456108377095442</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.231413635508654</v>
       </c>
       <c r="E37" t="n">
-        <v>3.210802933038062</v>
+        <v>3.235169675627237</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.035485746553988</v>
+        <v>-3.016289764278766</v>
       </c>
       <c r="G37" t="n">
-        <v>1.31964498227866</v>
+        <v>1.32528368800575</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.092343468293748</v>
       </c>
       <c r="E38" t="n">
-        <v>2.854132165054248</v>
+        <v>2.877051999985333</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.972856253670414</v>
+        <v>-2.960216617347418</v>
       </c>
       <c r="G38" t="n">
-        <v>1.175427272051063</v>
+        <v>1.179543147619335</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9586235387154648</v>
       </c>
       <c r="E39" t="n">
-        <v>2.506796944563705</v>
+        <v>2.532305444759971</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.832988026705634</v>
+        <v>-2.820958690484637</v>
       </c>
       <c r="G39" t="n">
-        <v>1.075520561334453</v>
+        <v>1.079050957618271</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8329036385852413</v>
       </c>
       <c r="E40" t="n">
-        <v>2.190662951775881</v>
+        <v>2.214902670181147</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.711084961475439</v>
+        <v>-2.703508041907668</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9538737345442133</v>
+        <v>0.9586816729075757</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7174337308150259</v>
       </c>
       <c r="E41" t="n">
-        <v>1.858255262966789</v>
+        <v>1.881864240596782</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.581349468261565</v>
+        <v>-2.574364598194657</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8329029100200639</v>
+        <v>0.8368172989517901</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6128175109287103</v>
       </c>
       <c r="E42" t="n">
-        <v>1.526380491710878</v>
+        <v>1.549990929388962</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.518560100112036</v>
+        <v>-2.510300608061766</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7171692779980041</v>
+        <v>0.7208529793313667</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5185767998366648</v>
       </c>
       <c r="E43" t="n">
-        <v>1.264198195978312</v>
+        <v>1.285193687525579</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.437644964937921</v>
+        <v>-2.429974602292333</v>
       </c>
       <c r="G43" t="n">
-        <v>0.650934196353931</v>
+        <v>0.6566035630909295</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4338660905570222</v>
       </c>
       <c r="E44" t="n">
-        <v>1.00041568753811</v>
+        <v>1.017546431788742</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.318491170262908</v>
+        <v>-2.314733006476909</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5443141845153232</v>
+        <v>0.5490622609069583</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3574144319195043</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7872588866020762</v>
+        <v>0.7986837629134368</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.274841572537102</v>
+        <v>-2.270394266052194</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4361085604499887</v>
+        <v>0.4422991643554415</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2890254413884285</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5551404411094113</v>
+        <v>0.5644132065347724</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.180632699495263</v>
+        <v>-2.179476341407264</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3759487389121867</v>
+        <v>0.376342951896732</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2282534125822347</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3573068448874644</v>
+        <v>0.3658539664116439</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.097927545361694</v>
+        <v>-2.09115584231606</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2933260774957543</v>
+        <v>0.2954358469871173</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1739923826719684</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2433515514401313</v>
+        <v>0.2473769040267666</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.991882792470905</v>
+        <v>-1.98625941724877</v>
       </c>
       <c r="G48" t="n">
-        <v>0.208479762836868</v>
+        <v>0.2069350319566866</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1256286573297701</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1125356226389846</v>
+        <v>0.118159727885165</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.895258999886704</v>
+        <v>-1.888653012299387</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1532271629326101</v>
+        <v>0.154091511402428</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.08247728271127878</v>
       </c>
       <c r="E50" t="n">
-        <v>0.006229521139922287</v>
+        <v>0.01295596269473866</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.814182529398543</v>
+        <v>-1.804871802722819</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08923909530044545</v>
+        <v>0.08810463793380939</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.04436351313053935</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.0854965401233258</v>
+        <v>-0.07821674034205504</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.684208318321806</v>
+        <v>-1.675595494633535</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03398795544427847</v>
+        <v>0.031005077194552</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.01051598982096083</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1959506382486598</v>
+        <v>-0.1848761734791173</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.567014638208837</v>
+        <v>-1.55601317584384</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.008076030054801144</v>
+        <v>-0.007592754136710365</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.02034325292442902</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.322249178256535</v>
+        <v>-0.3059930028123575</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.45089993363505</v>
+        <v>-1.442644821729052</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07742831437296434</v>
+        <v>-0.07549229060441941</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.04958281581298364</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3473313444102555</v>
+        <v>-0.3400238037152575</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.378101935822342</v>
+        <v>-1.370673211135799</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1415463262852198</v>
+        <v>-0.1395869417472204</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.07826238465113215</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4812557155969468</v>
+        <v>-0.4688934884112229</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.3344581782889</v>
+        <v>-1.326902429418447</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1581733539444881</v>
+        <v>-0.1512220649836718</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1070643304235247</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5667853327623784</v>
+        <v>-0.5505466778952919</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.240217914213107</v>
+        <v>-1.238549079245198</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2042364111645666</v>
+        <v>-0.2002694605015677</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1359338771790196</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6730125916645316</v>
+        <v>-0.6521193034836282</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.199722020363663</v>
+        <v>-1.197902800442391</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2376817327830122</v>
+        <v>-0.2311728383937412</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1649351514525343</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6970055619424343</v>
+        <v>-0.6756698791899856</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.15524311532222</v>
+        <v>-1.156722144038311</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2735580344728208</v>
+        <v>-0.2660329466122773</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1933047495762667</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7861064567382285</v>
+        <v>-0.769581632445324</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.145212584937678</v>
+        <v>-1.143907301944405</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3244918121241707</v>
+        <v>-0.3185245955766269</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2202126631874081</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8480227161293938</v>
+        <v>-0.8351085907653063</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.098743634348327</v>
+        <v>-1.102390834479416</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3588920051940706</v>
+        <v>-0.3527700235488904</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2448276378936965</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9850526096054479</v>
+        <v>-0.9672765240986345</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.096457199037963</v>
+        <v>-1.095273100036237</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4011297364159683</v>
+        <v>-0.3956268151613335</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2663353884184272</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.110371457344323</v>
+        <v>-1.08989574291742</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.096233811680055</v>
+        <v>-1.095071613399691</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4458904307389563</v>
+        <v>-0.4383230014837765</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.284516319852508</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.16939828156358</v>
+        <v>-1.148523974007859</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.13475572051059</v>
+        <v>-1.134196522091772</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5071496684892126</v>
+        <v>-0.4980608691233059</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2996175083197357</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.26334361592501</v>
+        <v>-1.244992271470378</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.167698785585763</v>
+        <v>-1.163423764775582</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5328479749372966</v>
+        <v>-0.5257842622734803</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3118636961259068</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.402277412111609</v>
+        <v>-1.377973451590342</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.128782663770682</v>
+        <v>-1.124720809981774</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5589813757164714</v>
+        <v>-0.5507233437142918</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3217728905346259</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.461675088545956</v>
+        <v>-1.437179861724781</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.214348782138386</v>
+        <v>-1.204528498678934</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6130411163304569</v>
+        <v>-0.6053233021219135</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3297007537649668</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.559854562371021</v>
+        <v>-1.536327347434118</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.306305530999998</v>
+        <v>-1.295851586669092</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6559752904917181</v>
+        <v>-0.6492181879269926</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3359672568975625</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.578633700916289</v>
+        <v>-1.559185860345385</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.378719536164797</v>
+        <v>-1.366262405853164</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6806880644784388</v>
+        <v>-0.6729147684424408</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3409913169744819</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.637942314417091</v>
+        <v>-1.624066017361095</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.461457541380411</v>
+        <v>-1.448816445009323</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6723205288694409</v>
+        <v>-0.666786946604897</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.345016246707892</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.69239334791944</v>
+        <v>-1.678611953989352</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.534367962896119</v>
+        <v>-1.523092011490031</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6986320555157066</v>
+        <v>-0.6923684492057083</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3479213357657147</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.730780932325611</v>
+        <v>-1.71353922442007</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.649256227073542</v>
+        <v>-1.634847012464364</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7459142528916939</v>
+        <v>-0.7347273644191514</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3495339167128803</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.709399988082344</v>
+        <v>-1.69284304273144</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.741675811179972</v>
+        <v>-1.729424547649157</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7659753136607794</v>
+        <v>-0.7564046984248729</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3492257108077385</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.70000895876162</v>
+        <v>-1.682075188060988</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.796331981439094</v>
+        <v>-1.781184712519961</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7831761402197749</v>
+        <v>-0.7765168608771402</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3464942885746969</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.649862147031269</v>
+        <v>-1.633200078217819</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.863957758889757</v>
+        <v>-1.851818189037897</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7831600796907748</v>
+        <v>-0.7749940307183225</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3409586097242961</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.556553393637476</v>
+        <v>-1.54449339640657</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.961075047728686</v>
+        <v>-1.952942579862324</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.784612827541229</v>
+        <v>-0.77752867420414</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.332144902059747</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.438042750146508</v>
+        <v>-1.42633316445742</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.013219205247399</v>
+        <v>-2.004863350023129</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7668586427557792</v>
+        <v>-0.7638772245541436</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3199210010610332</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.295363930606728</v>
+        <v>-1.289301810933275</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.06671755737043</v>
+        <v>-2.056803100809115</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7534232802232373</v>
+        <v>-0.7505104842818745</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3043302869849976</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.103818761512325</v>
+        <v>-1.104110771130507</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.08730788557247</v>
+        <v>-2.08165968953279</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7267219207366991</v>
+        <v>-0.7240193717204271</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2857128658827313</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9330398564149164</v>
+        <v>-0.9400393269627327</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.089108854892606</v>
+        <v>-2.079131616263381</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6716109454972593</v>
+        <v>-0.6689142366733509</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2644463595046031</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6951936422616166</v>
+        <v>-0.6985444526302521</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.119472745015189</v>
+        <v>-2.112425822904418</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6187951658567281</v>
+        <v>-0.6117475137219118</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2410147333660533</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4352817213104137</v>
+        <v>-0.4414942259372302</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.119028890395553</v>
+        <v>-2.113741326234327</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5211091882863906</v>
+        <v>-0.517443007530119</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2156258094452617</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1517111810941262</v>
+        <v>-0.1547159600652163</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.105502274857329</v>
+        <v>-2.100159958892694</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4537688502374996</v>
+        <v>-0.4491828391839554</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1889533638474734</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1438215331309763</v>
+        <v>0.1435674847631581</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.050881875776434</v>
+        <v>-2.037870657214301</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.339534687604803</v>
+        <v>-0.335522475450986</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1611782634423259</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4834944212404305</v>
+        <v>0.4856947137134299</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.995164250555222</v>
+        <v>-1.980637502074726</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2583691541830976</v>
+        <v>-0.2546387313108259</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1323792431997628</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7870778406388035</v>
+        <v>0.7895482420086211</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.921112071432424</v>
+        <v>-1.908881978598927</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.186336221570026</v>
+        <v>-0.1811793317129365</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1029391243696048</v>
       </c>
       <c r="E86" t="n">
-        <v>1.105537690035445</v>
+        <v>1.105723116142991</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.875656394218163</v>
+        <v>-1.860647099843622</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1091595395326831</v>
+        <v>-0.1056539640664113</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.07319146337281823</v>
       </c>
       <c r="E87" t="n">
-        <v>1.358175651397741</v>
+        <v>1.352631848796561</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.710712571316071</v>
+        <v>-1.689505372795622</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.061778058886514</v>
+        <v>-0.05924633549687831</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.04395762220586342</v>
       </c>
       <c r="E88" t="n">
-        <v>1.579729188904591</v>
+        <v>1.575873201896501</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.533652539331573</v>
+        <v>-1.510135544731307</v>
       </c>
       <c r="G88" t="n">
-        <v>0.008006399666558174</v>
+        <v>0.0102431933418303</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.01676246337885684</v>
       </c>
       <c r="E89" t="n">
-        <v>1.761582558771542</v>
+        <v>1.761379612086906</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.314490560597632</v>
+        <v>-1.281538735233914</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06370431423854321</v>
+        <v>0.06541111045681548</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.006735214881528066</v>
       </c>
       <c r="E90" t="n">
-        <v>1.941199134963221</v>
+        <v>1.942472296898493</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.08888392959042</v>
+        <v>-1.053823794783429</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09583267247898913</v>
+        <v>0.0979731029802613</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.02434200414219415</v>
       </c>
       <c r="E91" t="n">
-        <v>2.12427018493799</v>
+        <v>2.125258637495535</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8660046684170253</v>
+        <v>-0.830237870334035</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08057955007326596</v>
+        <v>0.08108618676081128</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.03459878062824645</v>
       </c>
       <c r="E92" t="n">
-        <v>2.242386615444413</v>
+        <v>2.24299253540214</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6657692930855337</v>
+        <v>-0.6302696838031795</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09470405530471671</v>
+        <v>0.09330240913744436</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.03636773001917275</v>
       </c>
       <c r="E93" t="n">
-        <v>2.346572727115475</v>
+        <v>2.346388761056021</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4155579316503281</v>
+        <v>-0.381912583443428</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04798835658800198</v>
+        <v>0.04481275199027556</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.0296342200222246</v>
       </c>
       <c r="E94" t="n">
-        <v>2.367057201830925</v>
+        <v>2.367213426976652</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2744267630869114</v>
+        <v>-0.2400791317482843</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01143167248782998</v>
+        <v>0.009225539822466938</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.01509684806304562</v>
       </c>
       <c r="E95" t="n">
-        <v>2.327381855008572</v>
+        <v>2.323660192424846</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1037705020291391</v>
+        <v>-0.0738468164059653</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.02721434043043237</v>
+        <v>-0.02789326279270491</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.005279790377124153</v>
       </c>
       <c r="E96" t="n">
-        <v>2.229596594168052</v>
+        <v>2.225777108362236</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01691999326155578</v>
+        <v>0.04612533522400249</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.06575961003042202</v>
+        <v>-0.06868700645269396</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.02973322206489448</v>
       </c>
       <c r="E97" t="n">
-        <v>2.076658016693457</v>
+        <v>2.076370387219548</v>
       </c>
       <c r="F97" t="n">
-        <v>0.09735112249353418</v>
+        <v>0.1204374029069825</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1179504890880444</v>
+        <v>-0.1235351730357701</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.05699171477298691</v>
       </c>
       <c r="E98" t="n">
-        <v>1.883535995660873</v>
+        <v>1.883792964124873</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1674947528769699</v>
+        <v>0.1882420362487825</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1380816321654935</v>
+        <v>-0.1398993920386748</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.08520039382479183</v>
       </c>
       <c r="E99" t="n">
-        <v>1.682296107242836</v>
+        <v>1.68625575766538</v>
       </c>
       <c r="F99" t="n">
-        <v>0.182733274801784</v>
+        <v>0.199507767318234</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1359076205581305</v>
+        <v>-0.134732281844949</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1141081180461443</v>
       </c>
       <c r="E100" t="n">
-        <v>1.515679799252608</v>
+        <v>1.526041760553787</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2117663310895035</v>
+        <v>0.225014807466409</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1296600747771321</v>
+        <v>-0.1296162733344049</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1412295718997024</v>
       </c>
       <c r="E101" t="n">
-        <v>1.366181095080194</v>
+        <v>1.381485319169099</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2093806125089586</v>
+        <v>0.218073738842229</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1110897231088644</v>
+        <v>-0.1109320379150463</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1670940133135798</v>
       </c>
       <c r="E102" t="n">
-        <v>1.173447446839791</v>
+        <v>1.197339673799421</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2226422293186824</v>
+        <v>0.2328815465802251</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1428691298555831</v>
+        <v>-0.1429961540394922</v>
       </c>
     </row>
   </sheetData>
